--- a/biology/Zoologie/Canard_à_bec_jaune/Canard_à_bec_jaune.xlsx
+++ b/biology/Zoologie/Canard_à_bec_jaune/Canard_à_bec_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_bec_jaune</t>
+          <t>Canard_à_bec_jaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anas undulata
 Le Canard à bec jaune (Anas undulata) est une espèce de palmipède appartenant à la famille des Anatidae et à la sous-famille des Anatinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_bec_jaune</t>
+          <t>Canard_à_bec_jaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Afrique subsaharienne : de l'Érythrée à l'Angola et l'Afrique du Sud (absent du Kalahari et du désert du Namib).
 Il vit dans les cours d'eau lents, les mares et les lacs. Il ne supporte pas les eaux trop acides, ni les cours d'eau rapides. Par contre il peut supporter des eaux basiques jusqu'à un pH de 10 si elles ne contiennent pas une concentration élevée de chlorure de sodium.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_bec_jaune</t>
+          <t>Canard_à_bec_jaune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Omnivore, il se nourrit de fruits, de graines, de racines, de feuilles, d'insectes aquatiques et de leur larves, de crustacés et de mollusques.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_bec_jaune</t>
+          <t>Canard_à_bec_jaune</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il en existe 2 sous-espèces :
 Anas undulata ruppelli Blyth 1855 ;
